--- a/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Mother/3_bordervowels_mfcc_no_ADS_M.xlsx
+++ b/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Mother/3_bordervowels_mfcc_no_ADS_M.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7589.628048529682</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9413.834391269329</v>
+        <v>9414</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8834.030793359769</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8897.541163391968</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10146.34665965943</v>
+        <v>10146</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4709.606706317255</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6482.621929597044</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7604.969621876823</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10374.76013869115</v>
+        <v>10375</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6852.348868336367</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10609.6406979739</v>
+        <v>10610</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8734.212820567551</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10130.59282589725</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8440.643700347824</v>
+        <v>8441</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9235.213581667031</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9820.353849272775</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11062.94800157472</v>
+        <v>11063</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10859.8139386861</v>
+        <v>10860</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10501.39826154165</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8950.49946427736</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8620.164910877917</v>
+        <v>8620</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8605.4775432069</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9914.467094232488</v>
+        <v>9914</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11540.21685826957</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8177.019542076318</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9541.64367429603</v>
+        <v>9542</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12086.8363124409</v>
+        <v>12087</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11327.00818979017</v>
+        <v>11327</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8027.023467566115</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7325.576528521303</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7074.19766368988</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10263.0042317899</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10261.53931355219</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10016.90730891128</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7803.663850444512</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7826.187645843765</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8785.25266163698</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10066.2258436523</v>
+        <v>10066</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7903.290082579529</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8140.898838544409</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7315.036767897855</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8270.972937265164</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7873.163191633667</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9333.044874580972</v>
+        <v>9333</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5946.76897896351</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9764.317303441911</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11885.41854163037</v>
+        <v>11885</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10585.66162512408</v>
+        <v>10586</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7961.33526742727</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9117.114198651905</v>
+        <v>9117</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7319.742320708383</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10791.15399201845</v>
+        <v>10791</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9843.280725097868</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>12617.02097220199</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9665.305935003142</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10090.00963236153</v>
+        <v>10090</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10813.44873253756</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10117.11837917494</v>
+        <v>10117</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10084.53900147363</v>
+        <v>10085</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10634.72189618215</v>
+        <v>10635</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>13166.96337815821</v>
+        <v>13167</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9489.416066025722</v>
+        <v>9489</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7684.521360149687</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10075.55701763184</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9600.617309831738</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8242.396261874612</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>12357.14780933203</v>
+        <v>12357</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9667.453794695148</v>
+        <v>9667</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10571.90393970132</v>
+        <v>10572</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7524.154870333845</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10722.69517220767</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9703.701624019648</v>
+        <v>9704</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7200.700196405624</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7653.145760533518</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10728.23287529529</v>
+        <v>10728</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>12138.23015403485</v>
+        <v>12138</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10135.28438409121</v>
+        <v>10135</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6779.493773744766</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6107.093767065488</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11239.98555304546</v>
+        <v>11240</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8184.457183436251</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6372.351588150765</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6826.534669188309</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>11080.54602568982</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>15587.01554898781</v>
+        <v>15587</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12594.48003230987</v>
+        <v>12594</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12113.61430489091</v>
+        <v>12114</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12110.50399565534</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>14533.30073884709</v>
+        <v>14533</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7952.733157050963</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10971.09251949505</v>
+        <v>10971</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9980.924745888071</v>
+        <v>9981</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9449.490100810352</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10696.43980373516</v>
+        <v>10696</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>8815.131939548843</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>9101.659894019998</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>12350.85612207417</v>
+        <v>12351</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>9724.200844489886</v>
+        <v>9724</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>10081.07671612608</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9380.934832227176</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>9222.427452454755</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>11330.27426653876</v>
+        <v>11330</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>10351.53763319873</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>11185.97728731873</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>10696.09150564911</v>
+        <v>10696</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>9514.068153445332</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>8998.727576284127</v>
+        <v>8999</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6932.568539922386</v>
+        <v>6933</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>11331.46024060245</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>9075.156346147156</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>7420.96356835349</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>7765.564142673868</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>8221.127954501229</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>9543.345199234584</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10494.55464531389</v>
+        <v>10495</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>9904.99263271402</v>
+        <v>9905</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>10416.65406321993</v>
+        <v>10417</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>7636.860536768298</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="120">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>11828.85232674851</v>
+        <v>11829</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>9334.575626421585</v>
+        <v>9335</v>
       </c>
     </row>
     <row r="122">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14293.85117711746</v>
+        <v>14294</v>
       </c>
     </row>
     <row r="123">
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>12036.30221741194</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="124">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>10272.00312498673</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="125">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9411.874095317058</v>
+        <v>9412</v>
       </c>
     </row>
     <row r="126">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>8661.799008041116</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="127">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9953.260602977998</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="128">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>8796.228766635722</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="129">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>9926.278357225559</v>
+        <v>9926</v>
       </c>
     </row>
     <row r="130">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6679.804885921703</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6873.310484712652</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="132">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6402.359790345688</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="133">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4856.944355792212</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="134">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5898.442824106072</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="135">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3138.59310142867</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="136">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>9997.277277399038</v>
+        <v>9997</v>
       </c>
     </row>
     <row r="137">
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>9647.27803161856</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="138">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>10400.40530499685</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="139">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>11358.50121676886</v>
+        <v>11359</v>
       </c>
     </row>
     <row r="140">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>8277.51955925326</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="141">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6746.236297671991</v>
+        <v>6746</v>
       </c>
     </row>
     <row r="142">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>7107.811918334746</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="143">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>8452.579351466522</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="144">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>11749.08872220295</v>
+        <v>11749</v>
       </c>
     </row>
     <row r="145">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>12303.64127823169</v>
+        <v>12304</v>
       </c>
     </row>
     <row r="146">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>7438.267815025343</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="147">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>9304.535268338233</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="148">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>11002.66002630961</v>
+        <v>11003</v>
       </c>
     </row>
     <row r="149">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>12456.29935364653</v>
+        <v>12456</v>
       </c>
     </row>
     <row r="150">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>10801.03859855763</v>
+        <v>10801</v>
       </c>
     </row>
     <row r="151">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>7472.95242152422</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="152">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>9590.029460579557</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="153">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>7854.368731487913</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="154">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>8777.051203371171</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="155">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>9486.045390243453</v>
+        <v>9486</v>
       </c>
     </row>
     <row r="156">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>8157.485522462947</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="157">
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>8053.359967206605</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="158">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>9251.978888565622</v>
+        <v>9252</v>
       </c>
     </row>
     <row r="159">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>9108.645111967595</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="160">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>11075.28440688793</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="161">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10545.37082957601</v>
+        <v>10545</v>
       </c>
     </row>
     <row r="162">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>8942.628517855213</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="163">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>9067.906413826193</v>
+        <v>9068</v>
       </c>
     </row>
     <row r="164">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>6999.392716038245</v>
+        <v>6999</v>
       </c>
     </row>
     <row r="165">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6746.142359000112</v>
+        <v>6746</v>
       </c>
     </row>
     <row r="166">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>8103.269686911766</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="167">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>7147.850095396709</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="168">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>7057.463704036116</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="169">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>10649.69524820399</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="170">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>10946.71895609563</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="171">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>10318.74010564616</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="172">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>9465.672425127879</v>
+        <v>9466</v>
       </c>
     </row>
     <row r="173">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>9880.419779717322</v>
+        <v>9880</v>
       </c>
     </row>
     <row r="174">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>9151.189141037474</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="175">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>10168.15277383535</v>
+        <v>10168</v>
       </c>
     </row>
     <row r="176">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>10810.20835763858</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="177">
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>8656.641944245712</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="178">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>9706.131166839012</v>
+        <v>9706</v>
       </c>
     </row>
     <row r="179">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>11444.06969626404</v>
+        <v>11444</v>
       </c>
     </row>
     <row r="180">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>12435.2831878926</v>
+        <v>12435</v>
       </c>
     </row>
     <row r="181">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>6302.708614411164</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="182">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>6966.75492804368</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="183">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>7426.236204867702</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="184">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>10548.37006451634</v>
+        <v>10548</v>
       </c>
     </row>
     <row r="185">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>8052.260895732861</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="186">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>9903.405715250239</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="187">
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>7214.725550815004</v>
+        <v>7215</v>
       </c>
     </row>
     <row r="188">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>5767.750905122271</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="189">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>9154.097239836257</v>
+        <v>9154</v>
       </c>
     </row>
     <row r="190">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>7292.882930004195</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="191">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5138.388806293027</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="192">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>7898.47661091605</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="193">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5886.156107055667</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="194">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>7783.445644738535</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="195">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>7596.140911991623</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="196">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>7662.979227522297</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="197">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>7989.034046638384</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="198">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>7966.333183465174</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="199">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>8043.170567726483</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="200">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>10234.22533902838</v>
+        <v>10234</v>
       </c>
     </row>
     <row r="201">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>8671.124973774837</v>
+        <v>8671</v>
       </c>
     </row>
     <row r="202">
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>8083.427496702881</v>
+        <v>8083</v>
       </c>
     </row>
   </sheetData>
